--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>Sceanrio2</t>
   </si>
   <si>
     <t>UnPublish</t>
@@ -444,6 +441,9 @@
   </si>
   <si>
     <t>D:\KWS\MyAzureProject\cert\SampleRemoteAccessPublic.cer</t>
+  </si>
+  <si>
+    <t>Scenario2</t>
   </si>
 </sst>
 </file>
@@ -859,12 +859,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y16" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="6" max="7" width="48.28515625" customWidth="1"/>
     <col min="14" max="14" width="31.7109375" customWidth="1"/>
     <col min="16" max="16" width="30" customWidth="1"/>
@@ -1226,11 +1228,11 @@
       <c r="B5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>36</v>
@@ -1319,10 +1321,10 @@
         <v>55</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>36</v>
@@ -1383,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
@@ -1407,10 +1409,10 @@
         <v>55</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>36</v>
@@ -1495,10 +1497,10 @@
         <v>55</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>36</v>
@@ -1559,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
@@ -1568,7 +1570,7 @@
         <v>48</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
@@ -1583,10 +1585,10 @@
         <v>55</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>36</v>
@@ -1673,10 +1675,10 @@
         <v>55</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>36</v>
@@ -1763,10 +1765,10 @@
         <v>55</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>36</v>
@@ -1853,10 +1855,10 @@
         <v>55</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>36</v>
@@ -1943,10 +1945,10 @@
         <v>55</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>36</v>
@@ -2033,10 +2035,10 @@
         <v>55</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>68</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>36</v>
@@ -2057,7 +2059,7 @@
         <v>40</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>42</v>
@@ -2079,7 +2081,7 @@
       </c>
       <c r="R14" s="6"/>
       <c r="S14" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T14" s="8">
         <v>0</v>
@@ -2109,7 +2111,7 @@
         <v>49</v>
       </c>
       <c r="AE14" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AF14" s="6"/>
       <c r="AG14" s="5"/>
@@ -2123,10 +2125,10 @@
         <v>55</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>36</v>
@@ -2147,7 +2149,7 @@
         <v>40</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>42</v>
@@ -2169,7 +2171,7 @@
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T15" s="8">
         <v>0</v>
@@ -2200,7 +2202,7 @@
       </c>
       <c r="AE15" s="6"/>
       <c r="AF15" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
@@ -2213,10 +2215,10 @@
         <v>55</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>36</v>
@@ -2259,7 +2261,7 @@
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T16" s="8">
         <v>0</v>
@@ -2291,7 +2293,7 @@
       <c r="AE16" s="6"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH16" s="5"/>
     </row>
